--- a/!Сводная_Чистые стёкла.xlsx
+++ b/!Сводная_Чистые стёкла.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.3\ovnt\Зуев И.А\!!!МатМодель\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanZuev\PycharmProjects\Glass_transition_math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25C60C-FA9F-4A42-990F-D14A73D27BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="7545" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10770" yWindow="7545" windowWidth="21600" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Чистые стёкла</t>
   </si>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -134,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -148,6 +147,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -469,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,20 +487,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -661,6 +663,94 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P9">
         <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>188</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <f>J16/I16</f>
+        <v>2.6595744680851063E-3</v>
+      </c>
+      <c r="L16">
+        <f>K16/$K$18</f>
+        <v>0.44130757800891529</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>148.5</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <f>J17/I17</f>
+        <v>3.3670033670033669E-3</v>
+      </c>
+      <c r="L17">
+        <f>K17/$K$18</f>
+        <v>0.55869242199108471</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>SUM(K16:K17)</f>
+        <v>6.0265778350884732E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>42.5</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <f>J22/I22</f>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="L22">
+        <f>K22/$K$24</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>34</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <f>J23/I23</f>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="L23">
+        <f>K23/$K$24</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f>SUM(K22:K23)</f>
+        <v>2.6470588235294117E-2</v>
       </c>
     </row>
   </sheetData>

--- a/!Сводная_Чистые стёкла.xlsx
+++ b/!Сводная_Чистые стёкла.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
     <t>Чистые стёкла</t>
   </si>
@@ -78,8 +78,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -133,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -152,10 +154,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:M22"/>
+    <sheetView tabSelected="1" topLeftCell="Q19" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,23 +495,28 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -673,18 +689,30 @@
         <v>188</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
         <f>J16/I16</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="L16">
         <f>K16/$K$18</f>
         <v>0.44130757800891529</v>
       </c>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <f>$O$18*L16</f>
+        <v>9.1105988726621501E-3</v>
+      </c>
+      <c r="O16">
+        <f>N16/$O$18</f>
+        <v>0.44130757800891529</v>
+      </c>
+      <c r="P16">
+        <f>K24/(N16+K24)</f>
+        <v>5.5163508863962471E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
@@ -692,24 +720,75 @@
         <v>148.5</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K17">
         <f>J17/I17</f>
-        <v>3.3670033670033669E-3</v>
+        <v>2.6936026936026937E-3</v>
       </c>
       <c r="L17">
         <f>K17/$K$18</f>
         <v>0.55869242199108471</v>
       </c>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f>$O$18*L17</f>
+        <v>1.1533956821956124E-2</v>
+      </c>
+      <c r="O17">
+        <f>N17/$O$18</f>
+        <v>0.55869242199108471</v>
+      </c>
+    </row>
+    <row r="18" spans="8:23" x14ac:dyDescent="0.25">
       <c r="K18">
         <f>SUM(K16:K17)</f>
-        <v>6.0265778350884732E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+        <v>4.8212622680707789E-3</v>
+      </c>
+      <c r="M18">
+        <f>1/K18</f>
+        <v>207.41456166419019</v>
+      </c>
+      <c r="O18">
+        <f>K18*M20</f>
+        <v>2.0644555694618275E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f>K24</f>
+        <v>5.3191489361702129E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>K26/K18</f>
+        <v>4.2819814701512104</v>
+      </c>
+      <c r="M20">
+        <f>M18/M24</f>
+        <v>4.2819814701512104</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="R21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="11">
+        <f>L22*L16</f>
+        <v>0.19613670133729566</v>
+      </c>
+      <c r="T21">
+        <f>L23*L16</f>
+        <v>0.24517087667161958</v>
+      </c>
+    </row>
+    <row r="22" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H22" s="7" t="s">
         <v>5</v>
       </c>
@@ -717,18 +796,37 @@
         <v>42.5</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K22">
         <f>J22/I22</f>
-        <v>1.1764705882352941E-2</v>
+        <v>9.4117647058823539E-3</v>
       </c>
       <c r="L22">
-        <f>K22/$K$24</f>
+        <f>K22/K25</f>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f>K22-K24</f>
+        <v>8.8798498122653318E-3</v>
+      </c>
+      <c r="O22">
+        <f>N22/$N$26</f>
+        <v>0.43013034252803878</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22">
+        <f>L22*L17</f>
+        <v>0.24830774310714876</v>
+      </c>
+      <c r="T22" s="12">
+        <f>L23*L17</f>
+        <v>0.31038467888393589</v>
+      </c>
+    </row>
+    <row r="23" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H23" s="7" t="s">
         <v>6</v>
       </c>
@@ -736,21 +834,340 @@
         <v>34</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K23">
         <f>J23/I23</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.1764705882352941E-2</v>
       </c>
       <c r="L23">
-        <f>K23/$K$24</f>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+        <f>K23/K25</f>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="N23">
+        <f>K23</f>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="O23">
+        <f>N23/$N$26</f>
+        <v>0.56986965747196117</v>
+      </c>
+    </row>
+    <row r="24" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="H24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>188</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
       <c r="K24">
+        <f>J24/I24</f>
+        <v>5.3191489361702129E-4</v>
+      </c>
+      <c r="M24">
+        <f>1/K26</f>
+        <v>48.438920885116701</v>
+      </c>
+      <c r="O24">
+        <f>SUM(O22:O23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="K25">
         <f>SUM(K22:K23)</f>
-        <v>2.6470588235294117E-2</v>
+        <v>2.1176470588235297E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f>SUM(K22:K23)-K24</f>
+        <v>2.0644555694618275E-2</v>
+      </c>
+      <c r="N26">
+        <f>N22+N23</f>
+        <v>2.0644555694618275E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="J29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="I30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <f>N16*O22</f>
+        <v>3.9187450137337342E-3</v>
+      </c>
+      <c r="K30">
+        <f>N16*O23</f>
+        <v>5.1918538589284151E-3</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <f>J30/$L$32</f>
+        <v>0.18981977968919389</v>
+      </c>
+      <c r="P30">
+        <f>K30/$L$32</f>
+        <v>0.25148779831972135</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="6">
+        <v>158</v>
+      </c>
+      <c r="T30" s="6">
+        <v>121.6</v>
+      </c>
+      <c r="V30">
+        <f>O30*S30</f>
+        <v>29.991525190892634</v>
+      </c>
+      <c r="W30">
+        <f>P30*T30</f>
+        <v>30.580916275678113</v>
+      </c>
+    </row>
+    <row r="31" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <f>N17*O22</f>
+        <v>4.9611047985315977E-3</v>
+      </c>
+      <c r="K31">
+        <f>N17*O23</f>
+        <v>6.5728520234245268E-3</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <f>J31/$L$32</f>
+        <v>0.24031056283884486</v>
+      </c>
+      <c r="P31">
+        <f>K31/$L$32</f>
+        <v>0.31838185915223988</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>-3</v>
+      </c>
+      <c r="V31">
+        <f>O31*S31</f>
+        <v>2.4031056283884484</v>
+      </c>
+      <c r="W31">
+        <f>P31*T31</f>
+        <v>-0.95514557745671969</v>
+      </c>
+    </row>
+    <row r="32" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f>J30+K30+J31+K31</f>
+        <v>2.0644555694618275E-2</v>
+      </c>
+      <c r="Q32">
+        <f>O30+P30+O31+P31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f>O38-O30</f>
+        <v>2.0350271491258426E-2</v>
+      </c>
+      <c r="P33">
+        <f>P38-P30</f>
+        <v>-6.3169216481017698E-3</v>
+      </c>
+      <c r="X33">
+        <f>V30+W30+V31+W31</f>
+        <v>62.020401517502478</v>
+      </c>
+    </row>
+    <row r="34" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f>O39-O31</f>
+        <v>-6.0361695748527844E-3</v>
+      </c>
+      <c r="P34">
+        <f>P39-P31</f>
+        <v>-7.9971802683039273E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>4.4506599073507553E-3</v>
+      </c>
+      <c r="K38">
+        <v>5.1918538589284151E-3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>0.21017005118045232</v>
+      </c>
+      <c r="P38">
+        <v>0.24517087667161958</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38" s="6">
+        <v>158</v>
+      </c>
+      <c r="T38" s="6">
+        <v>121.6</v>
+      </c>
+      <c r="V38">
+        <f>O38*S38</f>
+        <v>33.206868086511463</v>
+      </c>
+      <c r="W38">
+        <f>P38*T38</f>
+        <v>29.812778603268939</v>
+      </c>
+    </row>
+    <row r="39" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>4.9611047985315977E-3</v>
+      </c>
+      <c r="K39">
+        <v>6.5728520234245268E-3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>0.23427439326399208</v>
+      </c>
+      <c r="P39">
+        <v>0.31038467888393595</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>-3</v>
+      </c>
+      <c r="V39">
+        <f>O39*S39</f>
+        <v>2.3427439326399209</v>
+      </c>
+      <c r="W39">
+        <f>P39*T39</f>
+        <v>-0.93115403665180785</v>
+      </c>
+    </row>
+    <row r="40" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>2.1176470588235297E-2</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="X41">
+        <f>V38+W38+V39+W39</f>
+        <v>64.431236585768517</v>
+      </c>
+    </row>
+    <row r="43" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>188</v>
+      </c>
+      <c r="J43">
+        <v>0.35</v>
+      </c>
+      <c r="K43">
+        <f>J43/I43</f>
+        <v>1.8617021276595743E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>180</v>
+      </c>
+      <c r="J44">
+        <v>0.35</v>
+      </c>
+      <c r="K44">
+        <f>J44/I44</f>
+        <v>1.9444444444444444E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f>SUM(K43:K44)</f>
+        <v>3.8061465721040185E-3</v>
+      </c>
+      <c r="L45">
+        <f>1/K45</f>
+        <v>262.73291925465844</v>
       </c>
     </row>
   </sheetData>

--- a/!Сводная_Чистые стёкла.xlsx
+++ b/!Сводная_Чистые стёкла.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
     <t>Чистые стёкла</t>
   </si>
@@ -78,8 +78,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -133,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -150,6 +152,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -472,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:M22"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,23 +495,28 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -673,18 +689,30 @@
         <v>188</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
         <f>J16/I16</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="L16">
         <f>K16/$K$18</f>
-        <v>0.44130757800891529</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>$O$18*L16</f>
+        <v>2.0644555694618275E-2</v>
+      </c>
+      <c r="O16">
+        <f>N16/$O$18</f>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f>K24/(N16+K24)</f>
+        <v>2.5118203309692669E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
@@ -692,24 +720,75 @@
         <v>148.5</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <f>J17/I17</f>
-        <v>3.3670033670033669E-3</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f>K17/$K$18</f>
-        <v>0.55869242199108471</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>$O$18*L17</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>N17/$O$18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:23" x14ac:dyDescent="0.25">
       <c r="K18">
         <f>SUM(K16:K17)</f>
-        <v>6.0265778350884732E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+        <v>2.1276595744680851E-3</v>
+      </c>
+      <c r="M18">
+        <f>1/K18</f>
+        <v>470</v>
+      </c>
+      <c r="O18">
+        <f>K18*M20</f>
+        <v>2.0644555694618275E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f>K24</f>
+        <v>5.3191489361702129E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>K26/K18</f>
+        <v>9.7029411764705884</v>
+      </c>
+      <c r="M20">
+        <f>M18/M24</f>
+        <v>9.7029411764705884</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="R21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="9">
+        <f>L22*L16</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="T21">
+        <f>L23*L16</f>
+        <v>0.55555555555555547</v>
+      </c>
+    </row>
+    <row r="22" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H22" s="7" t="s">
         <v>5</v>
       </c>
@@ -717,18 +796,37 @@
         <v>42.5</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K22">
         <f>J22/I22</f>
-        <v>1.1764705882352941E-2</v>
+        <v>9.4117647058823539E-3</v>
       </c>
       <c r="L22">
-        <f>K22/$K$24</f>
+        <f>K22/K25</f>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f>K22-K24</f>
+        <v>8.8798498122653318E-3</v>
+      </c>
+      <c r="O22">
+        <f>N22/$N$26</f>
+        <v>0.43013034252803878</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22">
+        <f>L22*L17</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
+        <f>L23*L17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H23" s="7" t="s">
         <v>6</v>
       </c>
@@ -736,21 +834,340 @@
         <v>34</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K23">
         <f>J23/I23</f>
-        <v>1.4705882352941176E-2</v>
+        <v>1.1764705882352941E-2</v>
       </c>
       <c r="L23">
-        <f>K23/$K$24</f>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+        <f>K23/K25</f>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="N23">
+        <f>K23</f>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="O23">
+        <f>N23/$N$26</f>
+        <v>0.56986965747196117</v>
+      </c>
+    </row>
+    <row r="24" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="H24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>188</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
       <c r="K24">
+        <f>J24/I24</f>
+        <v>5.3191489361702129E-4</v>
+      </c>
+      <c r="M24">
+        <f>1/K26</f>
+        <v>48.438920885116701</v>
+      </c>
+      <c r="O24">
+        <f>SUM(O22:O23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="K25">
         <f>SUM(K22:K23)</f>
-        <v>2.6470588235294117E-2</v>
+        <v>2.1176470588235297E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f>SUM(K22:K23)-K24</f>
+        <v>2.0644555694618275E-2</v>
+      </c>
+      <c r="N26">
+        <f>N22+N23</f>
+        <v>2.0644555694618275E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="J29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="I30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <f>N16*O22+K24</f>
+        <v>9.4117647058823539E-3</v>
+      </c>
+      <c r="K30">
+        <f>N16*O23</f>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <f>J30/$L$32</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="P30">
+        <f>K30/$L$32</f>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="6">
+        <v>158</v>
+      </c>
+      <c r="T30" s="6">
+        <v>121.6</v>
+      </c>
+      <c r="V30">
+        <f>O30*S30</f>
+        <v>70.222222222222214</v>
+      </c>
+      <c r="W30">
+        <f>P30*T30</f>
+        <v>67.555555555555543</v>
+      </c>
+    </row>
+    <row r="31" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <f>N17*O22</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>N17*O23</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <f>J31/$L$32</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>K31/$L$32</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>-3</v>
+      </c>
+      <c r="V31">
+        <f>O31*S31</f>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f>P31*T31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:23" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f>J30+K30+J31+K31</f>
+        <v>2.1176470588235297E-2</v>
+      </c>
+      <c r="Q32">
+        <f>O30+P30+O31+P31</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="33" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f>O38-O30</f>
+        <v>-0.2342743932639921</v>
+      </c>
+      <c r="P33">
+        <f>P38-P30</f>
+        <v>-0.31038467888393589</v>
+      </c>
+      <c r="X33">
+        <f>V30+W30+V31+W31</f>
+        <v>137.77777777777777</v>
+      </c>
+    </row>
+    <row r="34" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f>O39-O31</f>
+        <v>0.23427439326399208</v>
+      </c>
+      <c r="P34">
+        <f>P39-P31</f>
+        <v>0.31038467888393595</v>
+      </c>
+    </row>
+    <row r="37" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>4.4506599073507553E-3</v>
+      </c>
+      <c r="K38">
+        <v>5.1918538589284151E-3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>0.21017005118045232</v>
+      </c>
+      <c r="P38">
+        <v>0.24517087667161958</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38" s="6">
+        <v>158</v>
+      </c>
+      <c r="T38" s="6">
+        <v>121.6</v>
+      </c>
+      <c r="V38">
+        <f>O38*S38</f>
+        <v>33.206868086511463</v>
+      </c>
+      <c r="W38">
+        <f>P38*T38</f>
+        <v>29.812778603268939</v>
+      </c>
+    </row>
+    <row r="39" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>4.9611047985315977E-3</v>
+      </c>
+      <c r="K39">
+        <v>6.5728520234245268E-3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>0.23427439326399208</v>
+      </c>
+      <c r="P39">
+        <v>0.31038467888393595</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>-3</v>
+      </c>
+      <c r="V39">
+        <f>O39*S39</f>
+        <v>2.3427439326399209</v>
+      </c>
+      <c r="W39">
+        <f>P39*T39</f>
+        <v>-0.93115403665180785</v>
+      </c>
+    </row>
+    <row r="40" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>2.1176470588235297E-2</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="X41">
+        <f>V38+W38+V39+W39</f>
+        <v>64.431236585768517</v>
+      </c>
+    </row>
+    <row r="43" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>188</v>
+      </c>
+      <c r="J43">
+        <v>0.35</v>
+      </c>
+      <c r="K43">
+        <f>J43/I43</f>
+        <v>1.8617021276595743E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>180</v>
+      </c>
+      <c r="J44">
+        <v>0.35</v>
+      </c>
+      <c r="K44">
+        <f>J44/I44</f>
+        <v>1.9444444444444444E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f>SUM(K43:K44)</f>
+        <v>3.8061465721040185E-3</v>
+      </c>
+      <c r="L45">
+        <f>1/K45</f>
+        <v>262.73291925465844</v>
       </c>
     </row>
   </sheetData>
